--- a/files/OS2019Autumn/Grading.xlsx
+++ b/files/OS2019Autumn/Grading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chewei/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7B9ED4-2500-414D-9E89-2D85FB2F2858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="460" windowWidth="18220" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總成績" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="成績" sheetId="3" r:id="rId3"/>
     <sheet name="Project" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjWrVyhDkEmks8Q8X0RQHWh4yvYQg=="/>
@@ -633,7 +632,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
@@ -1043,27 +1042,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomRight" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
     <col min="10" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="14" max="26" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="14" max="26" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21.75" customHeight="1">
@@ -1199,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="24">
-        <f t="shared" ref="L3:L67" si="0">D4*0.05+E4*0.05+F4*0.05+G4*0.3+H4*0.05+I4*0.3+J4*0.2</f>
+        <f t="shared" ref="L4:L67" si="0">D4*0.05+E4*0.05+F4*0.05+G4*0.3+H4*0.05+I4*0.3+J4*0.2</f>
         <v>0</v>
       </c>
       <c r="M4" s="21">
@@ -2610,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="I38" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J38">
         <v>90</v>
@@ -2620,11 +2619,11 @@
       </c>
       <c r="L38" s="24">
         <f t="shared" si="0"/>
-        <v>57.3</v>
+        <v>59.1</v>
       </c>
       <c r="M38" s="21">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="4"/>
@@ -2984,18 +2983,18 @@
         <v>55</v>
       </c>
       <c r="I47" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <v>40</v>
       </c>
       <c r="L47" s="24">
         <f t="shared" si="0"/>
-        <v>52.7</v>
+        <v>53.3</v>
       </c>
       <c r="M47" s="21">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -3829,7 +3828,7 @@
       <c r="I68" s="8"/>
       <c r="L68" s="12">
         <f>AVERAGE(L3:L67)</f>
-        <v>76.649230769230797</v>
+        <v>76.686153846153886</v>
       </c>
     </row>
     <row r="69" spans="2:18" ht="21.75" customHeight="1">
@@ -6631,13 +6630,13 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="3.937007874015748E-2" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="85" fitToWidth="2" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6647,13 +6646,13 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="21" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="21" width="6.6640625" customWidth="1"/>
     <col min="22" max="22" width="8" customWidth="1"/>
-    <col min="23" max="26" width="6.7109375" customWidth="1"/>
+    <col min="23" max="26" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="21.75" customHeight="1">
@@ -12447,27 +12446,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49:L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="21" width="9" customWidth="1"/>
-    <col min="22" max="26" width="6.7109375" customWidth="1"/>
+    <col min="22" max="26" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="21.75" customHeight="1">
@@ -13528,7 +13527,7 @@
         <v>14</v>
       </c>
       <c r="J38" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21.75" customHeight="1">
@@ -13774,7 +13773,7 @@
         <v>14</v>
       </c>
       <c r="J47" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="21.75" customHeight="1">
@@ -18052,16 +18051,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88811381-D993-7A4E-981F-76935A3ED62D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -18087,7 +18086,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -18117,7 +18116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
@@ -18183,7 +18182,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
@@ -18216,7 +18215,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
@@ -18246,7 +18245,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
@@ -18276,7 +18275,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -18306,7 +18305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -18336,7 +18335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="18" t="s">
         <v>32</v>
       </c>
@@ -18369,7 +18368,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="18" t="s">
         <v>36</v>
       </c>
@@ -18429,7 +18428,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="18" t="s">
         <v>38</v>
       </c>
@@ -18459,7 +18458,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="18" t="s">
         <v>40</v>
       </c>
@@ -18489,7 +18488,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="18" t="s">
         <v>42</v>
       </c>
@@ -18519,7 +18518,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="18" t="s">
         <v>44</v>
       </c>
@@ -18549,7 +18548,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="18" t="s">
         <v>46</v>
       </c>
@@ -18579,7 +18578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
@@ -18610,7 +18609,7 @@
       </c>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="18" t="s">
         <v>50</v>
       </c>
@@ -18640,7 +18639,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="18" t="s">
         <v>52</v>
       </c>
@@ -18670,7 +18669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="18" t="s">
         <v>54</v>
       </c>
@@ -18700,7 +18699,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="18" t="s">
         <v>56</v>
       </c>
@@ -18730,7 +18729,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="18" t="s">
         <v>58</v>
       </c>
@@ -18760,7 +18759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="18" t="s">
         <v>60</v>
       </c>
@@ -18790,7 +18789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="18" t="s">
         <v>62</v>
       </c>
@@ -18820,7 +18819,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="18" t="s">
         <v>64</v>
       </c>
@@ -18850,7 +18849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="18" t="s">
         <v>66</v>
       </c>
@@ -18880,7 +18879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="18" t="s">
         <v>68</v>
       </c>
@@ -18913,7 +18912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="18" t="s">
         <v>70</v>
       </c>
@@ -18946,7 +18945,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="16.5">
       <c r="A31" s="18" t="s">
         <v>72</v>
       </c>
@@ -18979,7 +18978,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="18" t="s">
         <v>74</v>
       </c>
@@ -19009,7 +19008,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="18" t="s">
         <v>76</v>
       </c>
@@ -19039,7 +19038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="18" t="s">
         <v>78</v>
       </c>
@@ -19069,7 +19068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="18" t="s">
         <v>80</v>
       </c>
@@ -19099,7 +19098,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="18" t="s">
         <v>82</v>
       </c>
@@ -19129,7 +19128,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="16.5">
       <c r="A37" s="18" t="s">
         <v>84</v>
       </c>
@@ -19162,7 +19161,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="18" t="s">
         <v>86</v>
       </c>
@@ -19192,7 +19191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="16.5">
       <c r="A39" s="18" t="s">
         <v>88</v>
       </c>
@@ -19225,7 +19224,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="18" t="s">
         <v>90</v>
       </c>
@@ -19255,7 +19254,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="18" t="s">
         <v>92</v>
       </c>
@@ -19285,7 +19284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="18" t="s">
         <v>94</v>
       </c>
@@ -19315,7 +19314,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="18" t="s">
         <v>96</v>
       </c>
@@ -19345,7 +19344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="18" t="s">
         <v>98</v>
       </c>
@@ -19375,7 +19374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="18" t="s">
         <v>100</v>
       </c>
@@ -19405,7 +19404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="18" t="s">
         <v>102</v>
       </c>
@@ -19438,7 +19437,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="16.5">
       <c r="A47" s="18" t="s">
         <v>104</v>
       </c>
@@ -19471,7 +19470,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="18" t="s">
         <v>106</v>
       </c>
@@ -19501,7 +19500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" ht="16.5">
       <c r="A49" s="18" t="s">
         <v>108</v>
       </c>
@@ -19534,7 +19533,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="18" t="s">
         <v>110</v>
       </c>
@@ -19567,7 +19566,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="18" t="s">
         <v>112</v>
       </c>
@@ -19597,7 +19596,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="18" t="s">
         <v>114</v>
       </c>
@@ -19627,7 +19626,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="18" t="s">
         <v>116</v>
       </c>
@@ -19657,7 +19656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" ht="16.5">
       <c r="A54" s="18" t="s">
         <v>118</v>
       </c>
@@ -19690,7 +19689,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="18" t="s">
         <v>120</v>
       </c>
@@ -19720,7 +19719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="18" t="s">
         <v>122</v>
       </c>
@@ -19750,7 +19749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="18" t="s">
         <v>124</v>
       </c>
@@ -19780,7 +19779,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="18" t="s">
         <v>126</v>
       </c>
@@ -19810,7 +19809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="18" t="s">
         <v>128</v>
       </c>
@@ -19840,7 +19839,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="18" t="s">
         <v>130</v>
       </c>
@@ -19870,7 +19869,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="18" t="s">
         <v>132</v>
       </c>
@@ -19903,7 +19902,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="18" t="s">
         <v>134</v>
       </c>
@@ -19933,7 +19932,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="18" t="s">
         <v>136</v>
       </c>
@@ -19963,7 +19962,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" ht="15.75">
       <c r="A64" s="18" t="s">
         <v>138</v>
       </c>
@@ -19993,7 +19992,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="15.75">
       <c r="A65" s="18" t="s">
         <v>140</v>
       </c>
@@ -20023,7 +20022,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" ht="15.75">
       <c r="A66" s="18" t="s">
         <v>142</v>
       </c>
@@ -20056,7 +20055,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="16.5">
       <c r="A67" s="18" t="s">
         <v>144</v>
       </c>
@@ -20092,5 +20091,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>